--- a/src/main/resources/womenRevolveSweater.xlsx
+++ b/src/main/resources/womenRevolveSweater.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="177">
-  <si>
-    <t>Category</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="218">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Image</t>
@@ -32,7 +32,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>SWEATERS &amp; KNITS</t>
+    <t>women_revolve_sweater_1</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ANIN-WK75_V1.jpg</t>
@@ -50,6 +50,9 @@
     <t>https://www.revolve.com/anine-bing-sport-harvey-sweatshirt-in-heather-grey/dp/ANIN-WK75/?d=Womens&amp;vn=true&amp;page=1&amp;lc=1&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>women_revolve_sweater_2</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/HLSA-WK37_V1.jpg</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
     <t>https://www.revolve.com/helsa-elvira-cardigan-in-black/dp/HLSA-WK37/?d=Womens&amp;vn=true&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>women_revolve_sweater_3</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ANIN-WK175_V1.jpg</t>
   </si>
   <si>
@@ -77,6 +83,9 @@
     <t>https://www.revolve.com/anine-bing-miles-sweatshirt-in-washed-dark-sage/dp/ANIN-WK175/?d=Womens&amp;vn=true&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>women_revolve_sweater_4</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/LPAR-WK41_V1.jpg</t>
   </si>
   <si>
@@ -92,6 +101,9 @@
     <t>https://www.revolve.com/lpa-ruffle-sweater-cardigan-in-black/dp/LPAR-WK41/?d=Womens&amp;vn=true&amp;page=1&amp;lc=4&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>women_revolve_sweater_5</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ANIN-WK166_V1.jpg</t>
   </si>
   <si>
@@ -101,6 +113,9 @@
     <t>https://www.revolve.com/anine-bing-tyler-bing-sweatshirt-in-navy/dp/ANIN-WK166/?d=Womens&amp;vn=true&amp;page=1&amp;lc=5&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>women_revolve_sweater_6</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ANIN-WK177_V1.jpg</t>
   </si>
   <si>
@@ -110,6 +125,9 @@
     <t>https://www.revolve.com/anine-bing-harvey-sweatshirt-in-ivory-dark-sage/dp/ANIN-WK177/?d=Womens&amp;vn=true&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>women_revolve_sweater_7</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WK85_V1.jpg</t>
   </si>
   <si>
@@ -125,6 +143,9 @@
     <t>https://www.revolve.com/show-me-your-mumu-gilligan-sweater-in-palm-tree-knit/dp/SHOW-WK85/?d=Womens&amp;vn=true&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>women_revolve_sweater_8</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ANIN-WK176_V1.jpg</t>
   </si>
   <si>
@@ -134,6 +155,9 @@
     <t>https://www.revolve.com/anine-bing-spencer-sweatshirt-spotted-leopard-in-washed-black/dp/ANIN-WK176/?d=Womens&amp;vn=true&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>women_revolve_sweater_9</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ANIN-WK169_V1.jpg</t>
   </si>
   <si>
@@ -146,6 +170,9 @@
     <t>https://www.revolve.com/anine-bing-harvey-leopard-crew-in-vintage-black/dp/ANIN-WK169/?d=Womens&amp;vn=true&amp;page=1&amp;lc=9&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>women_revolve_sweater_10</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WD683_V1.jpg</t>
   </si>
   <si>
@@ -158,6 +185,9 @@
     <t>https://www.revolve.com/show-me-your-mumu-vacay-mini-coverup-in-blue-multi-floral/dp/SHOW-WD683/?d=Womens&amp;vn=true&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>women_revolve_sweater_11</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/SDYS-WK10_V1.jpg</t>
   </si>
   <si>
@@ -173,6 +203,27 @@
     <t>https://www.revolve.com/sndys-tia-knit-cardi-in-camel/dp/SDYS-WK10/?d=Womens&amp;vn=true&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
+    <t>women_revolve_sweater_12</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WK966_V1.jpg</t>
+  </si>
+  <si>
+    <t>Free People</t>
+  </si>
+  <si>
+    <t>Found My Friend Cardi</t>
+  </si>
+  <si>
+    <t>CA$ 120.74</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/free-people-found-my-friend-cardi-in-cream/dp/FREE-WK966/?d=Womens&amp;vn=true&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_13</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/SDYS-WK48_V1.jpg</t>
   </si>
   <si>
@@ -182,7 +233,46 @@
     <t>CA$ 133.12</t>
   </si>
   <si>
-    <t>https://www.revolve.com/sndys-winnie-jumper-in-heather-grey/dp/SDYS-WK48/?d=Womens&amp;vn=true&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/sndys-winnie-jumper-in-heather-grey/dp/SDYS-WK48/?d=Womens&amp;vn=true&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_14</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/CULG-WD241_V1.jpg</t>
+  </si>
+  <si>
+    <t>Cult Gaia</t>
+  </si>
+  <si>
+    <t>Naunet Dress</t>
+  </si>
+  <si>
+    <t>CA$ 781.89</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/cult-gaia-naunet-dress-in-off-white/dp/CULG-WD241/?d=Womens&amp;vn=true&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_15</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SERR-WD142_V1.jpg</t>
+  </si>
+  <si>
+    <t>SER.O.YA</t>
+  </si>
+  <si>
+    <t>Galleria Maxi Dress</t>
+  </si>
+  <si>
+    <t>CA$ 557.58</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/seroya-galleria-maxi-dress-in-butter/dp/SERR-WD142/?d=Womens&amp;vn=true&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_16</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/VARR-WK75_V1.jpg</t>
@@ -194,22 +284,28 @@
     <t>Mentone Half Zip</t>
   </si>
   <si>
-    <t>https://www.revolve.com/varley-mentone-half-zip-in-egret/dp/VARR-WK75/?d=Womens&amp;vn=true&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WK966_V1.jpg</t>
-  </si>
-  <si>
-    <t>Free People</t>
-  </si>
-  <si>
-    <t>Found My Friend Cardi</t>
-  </si>
-  <si>
-    <t>CA$ 120.74</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/free-people-found-my-friend-cardi-in-cream/dp/FREE-WK966/?d=Womens&amp;vn=true&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/varley-mentone-half-zip-in-egret/dp/VARR-WK75/?d=Womens&amp;vn=true&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_17</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/COEL-WD425_V1.jpg</t>
+  </si>
+  <si>
+    <t>Camila Coelho</t>
+  </si>
+  <si>
+    <t>Emlyn Stripe Knit Dress</t>
+  </si>
+  <si>
+    <t>CA$ 317.24</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/camila-coelho-emlyn-stripe-knit-dress-in-neutrals/dp/COEL-WD425/?d=Womens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_18</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WK1086_V1.jpg</t>
@@ -221,22 +317,34 @@
     <t>CA$ 151.70</t>
   </si>
   <si>
-    <t>https://www.revolve.com/free-people-easy-street-crop-sweater-in-moonglow/dp/FREE-WK1086/?d=Womens&amp;vn=true&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/CULG-WD241_V1.jpg</t>
-  </si>
-  <si>
-    <t>Cult Gaia</t>
-  </si>
-  <si>
-    <t>Naunet Dress</t>
-  </si>
-  <si>
-    <t>CA$ 781.89</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/cult-gaia-naunet-dress-in-off-white/dp/CULG-WD241/?d=Womens&amp;vn=true&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/free-people-easy-street-crop-sweater-in-moonglow/dp/FREE-WK1086/?d=Womens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_19</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ANIN-WK123_V1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/anine-bing-harvey-sweatshirt-in-dark-washed-black/dp/ANIN-WK123/?d=Womens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_20</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/COEL-WD211_V1.jpg</t>
+  </si>
+  <si>
+    <t>Cressida Dress</t>
+  </si>
+  <si>
+    <t>CA$ 365.31</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/camila-coelho-cressida-dress-in-yellow-ombre/dp/COEL-WD211/?d=Womens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_21</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/SOVR-WD11_V1.jpg</t>
@@ -251,34 +359,10 @@
     <t>CA$ 366.91</t>
   </si>
   <si>
-    <t>https://www.revolve.com/sovere-recline-knit-dress-in-azure/dp/SOVR-WD11/?d=Womens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/COEL-WD425_V1.jpg</t>
-  </si>
-  <si>
-    <t>Camila Coelho</t>
-  </si>
-  <si>
-    <t>Emlyn Stripe Knit Dress</t>
-  </si>
-  <si>
-    <t>CA$ 317.24</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/camila-coelho-emlyn-stripe-knit-dress-in-neutrals/dp/COEL-WD425/?d=Womens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/COEL-WD211_V1.jpg</t>
-  </si>
-  <si>
-    <t>Cressida Dress</t>
-  </si>
-  <si>
-    <t>CA$ 365.31</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/camila-coelho-cressida-dress-in-yellow-ombre/dp/COEL-WD211/?d=Womens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/sovere-recline-knit-dress-in-azure/dp/SOVR-WD11/?d=Womens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_22</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/STRR-WK40_V1.jpg</t>
@@ -293,31 +377,58 @@
     <t>CA$ 119.49</t>
   </si>
   <si>
-    <t>https://www.revolve.com/strutthis-the-shrug-in-heather-grey/dp/STRR-WK40/?d=Womens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/FREE-WK1178_V1.jpg</t>
-  </si>
-  <si>
-    <t>Classic Striped Crew</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/free-people-classic-striped-crew-in-coffee-combo/dp/FREE-WK1178/?d=Womens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/strutthis-the-shrug-in-heather-grey/dp/STRR-WK40/?d=Womens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_23</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LEAX-WD462_V1.jpg</t>
+  </si>
+  <si>
+    <t>Line &amp; Dot</t>
+  </si>
+  <si>
+    <t>Wandering Maxi Dress</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/line-dot-wandering-maxi-dress-in-lavender/dp/LEAX-WD462/?d=Womens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_24</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/MOTO-WD319_V1.jpg</t>
+  </si>
+  <si>
+    <t>MORE TO COME</t>
+  </si>
+  <si>
+    <t>Dylan Deep V Maxi Dress</t>
+  </si>
+  <si>
+    <t>CA$ 137.41</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/more-to-come-dylan-deep-v-maxi-dress-in-ivory/dp/MOTO-WD319/?d=Womens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_25</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/MOTO-WD366_V1.jpg</t>
   </si>
   <si>
-    <t>MORE TO COME</t>
-  </si>
-  <si>
     <t>Cherlee Maxi Dress</t>
   </si>
   <si>
     <t>CA$ 131.17</t>
   </si>
   <si>
-    <t>https://www.revolve.com/more-to-come-cherlee-maxi-dress-in-blue/dp/MOTO-WD366/?d=Womens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/more-to-come-cherlee-maxi-dress-in-blue/dp/MOTO-WD366/?d=Womens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_26</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ONEG-WD20_V1.jpg</t>
@@ -332,7 +443,97 @@
     <t>CA$ 301.22</t>
   </si>
   <si>
-    <t>https://www.revolve.com/one-grey-day-x-revolve-samantha-dress-in-lavender/dp/ONEG-WD20/?d=Womens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/one-grey-day-x-revolve-samantha-dress-in-lavender/dp/ONEG-WD20/?d=Womens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_27</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/TLIN-WD46_V1.jpg</t>
+  </si>
+  <si>
+    <t>The Line by K</t>
+  </si>
+  <si>
+    <t>Candela Dress</t>
+  </si>
+  <si>
+    <t>CA$ 319.09</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/the-line-by-k-candela-dress-in-vanilla/dp/TLIN-WD46/?d=Womens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_28</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WD637_V1.jpg</t>
+  </si>
+  <si>
+    <t>Vacay Tank Coverup</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/show-me-your-mumu-vacay-tank-coverup-in-white-multi-floral/dp/SHOW-WD637/?d=Womens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_29</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/MALR-WK153_V1.jpg</t>
+  </si>
+  <si>
+    <t>MAJORELLE</t>
+  </si>
+  <si>
+    <t>Fallone Sweater</t>
+  </si>
+  <si>
+    <t>CA$ 189.06</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/majorelle-fallone-sweater-in-cream/dp/MALR-WK153/?d=Womens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_30</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AKNR-WD2_V1.jpg</t>
+  </si>
+  <si>
+    <t>AKNVAS</t>
+  </si>
+  <si>
+    <t>x REVOLVE Sasha Fringe Dress</t>
+  </si>
+  <si>
+    <t>CA$ 953.33</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/aknvas-x-revolve-sasha-fringe-dress-in-blue/dp/AKNR-WD2/?d=Womens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_31</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/STRR-WK42_V1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/strutthis-the-shrug-in-black/dp/STRR-WK42/?d=Womens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_32</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ANIN-WK160_V1.jpg</t>
+  </si>
+  <si>
+    <t>Jaci Paris Sweatshirt</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/anine-bing-jaci-paris-sweatshirt-in-washed-black/dp/ANIN-WK160/?d=Womens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_33</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/TULA-WD1536_V1.jpg</t>
@@ -347,97 +548,46 @@
     <t>CA$ 381.33</t>
   </si>
   <si>
-    <t>https://www.revolve.com/tularosa-anna-maxi-dress-in-black-ivory/dp/TULA-WD1536/?d=Womens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/MALR-WK153_V1.jpg</t>
-  </si>
-  <si>
-    <t>MAJORELLE</t>
-  </si>
-  <si>
-    <t>Fallone Sweater</t>
-  </si>
-  <si>
-    <t>CA$ 189.06</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/majorelle-fallone-sweater-in-cream/dp/MALR-WK153/?d=Womens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/MOTO-WD319_V1.jpg</t>
-  </si>
-  <si>
-    <t>Dylan Deep V Maxi Dress</t>
-  </si>
-  <si>
-    <t>CA$ 137.41</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/more-to-come-dylan-deep-v-maxi-dress-in-ivory/dp/MOTO-WD319/?d=Womens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SHOW-WD637_V1.jpg</t>
-  </si>
-  <si>
-    <t>Vacay Tank Coverup</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/show-me-your-mumu-vacay-tank-coverup-in-white-multi-floral/dp/SHOW-WD637/?d=Womens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LEAX-WD462_V1.jpg</t>
-  </si>
-  <si>
-    <t>Line &amp; Dot</t>
-  </si>
-  <si>
-    <t>Wandering Maxi Dress</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/line-dot-wandering-maxi-dress-in-lavender/dp/LEAX-WD462/?d=Womens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/TLIN-WD46_V1.jpg</t>
-  </si>
-  <si>
-    <t>The Line by K</t>
-  </si>
-  <si>
-    <t>Candela Dress</t>
-  </si>
-  <si>
-    <t>CA$ 319.09</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/the-line-by-k-candela-dress-in-vanilla/dp/TLIN-WD46/?d=Womens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/AKNR-WD2_V1.jpg</t>
-  </si>
-  <si>
-    <t>AKNVAS</t>
-  </si>
-  <si>
-    <t>x REVOLVE Sasha Fringe Dress</t>
-  </si>
-  <si>
-    <t>CA$ 953.33</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/aknvas-x-revolve-sasha-fringe-dress-in-blue/dp/AKNR-WD2/?d=Womens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ANIN-WK123_V1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/anine-bing-harvey-sweatshirt-in-dark-washed-black/dp/ANIN-WK123/?d=Womens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/STRR-WK42_V1.jpg</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/strutthis-the-shrug-in-black/dp/STRR-WK42/?d=Womens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/tularosa-anna-maxi-dress-in-black-ivory/dp/TULA-WD1536/?d=Womens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_34</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NBDR-WD2778_V1.jpg</t>
+  </si>
+  <si>
+    <t>NBD</t>
+  </si>
+  <si>
+    <t>x Marianna Hewitt Saskia Boucle Midi Dress with Slit</t>
+  </si>
+  <si>
+    <t>CA$ 397.35</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/nbd-x-marianna-hewitt-saskia-boucle-midi-dress-with-slit-in-ivory/dp/NBDR-WD2778/?d=Womens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_35</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/MINK-WD913_V1.jpg</t>
+  </si>
+  <si>
+    <t>MINKPINK</t>
+  </si>
+  <si>
+    <t>Lacy Midi Dress</t>
+  </si>
+  <si>
+    <t>CA$ 222.71</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/minkpink-lacy-midi-dress-in-white-blue-floral/dp/MINK-WD913/?d=Womens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_36</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ANIN-WK147_V1.jpg</t>
@@ -446,16 +596,61 @@
     <t>Tyler Sweatshirt</t>
   </si>
   <si>
-    <t>https://www.revolve.com/anine-bing-tyler-sweatshirt-in-washed-black/dp/ANIN-WK147/?d=Womens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ANIN-WK160_V1.jpg</t>
-  </si>
-  <si>
-    <t>Jaci Paris Sweatshirt</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/anine-bing-jaci-paris-sweatshirt-in-washed-black/dp/ANIN-WK160/?d=Womens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/anine-bing-tyler-sweatshirt-in-washed-black/dp/ANIN-WK147/?d=Womens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_37</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SIMO-WD52_V1.jpg</t>
+  </si>
+  <si>
+    <t>Simon Miller</t>
+  </si>
+  <si>
+    <t>Beep Beep Dress</t>
+  </si>
+  <si>
+    <t>CA$ 793.10</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/simon-miller-beep-beep-dress-in-star-gold/dp/SIMO-WD52/?d=Womens&amp;page=1&amp;lc=37&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_38</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/AORR-WD10_V1.jpg</t>
+  </si>
+  <si>
+    <t>Asta Resort</t>
+  </si>
+  <si>
+    <t>Maya Sleeve Mini Dress</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/asta-resort-maya-sleeve-mini-dress-in-chocolate-sequin/dp/AORR-WD10/?d=Womens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_39</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NOJR-WK7_V1.jpg</t>
+  </si>
+  <si>
+    <t>No! Jeans</t>
+  </si>
+  <si>
+    <t>Gone Golfing Cardigan</t>
+  </si>
+  <si>
+    <t>CA$ 560.78</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/no-jeans-gone-golfing-cardigan-in-green/dp/NOJR-WK7/?d=Womens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>women_revolve_sweater_40</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/LOVF-WD2808_V1.jpg</t>
@@ -470,79 +665,7 @@
     <t>CA$ 269.17</t>
   </si>
   <si>
-    <t>https://www.revolve.com/lovers-and-friends-tamarin-sweater-dress-in-black/dp/LOVF-WD2808/?d=Womens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NBDR-WD2778_V1.jpg</t>
-  </si>
-  <si>
-    <t>NBD</t>
-  </si>
-  <si>
-    <t>x Marianna Hewitt Saskia Boucle Midi Dress with Slit</t>
-  </si>
-  <si>
-    <t>CA$ 397.35</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nbd-x-marianna-hewitt-saskia-boucle-midi-dress-with-slit-in-ivory/dp/NBDR-WD2778/?d=Womens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/MINK-WD913_V1.jpg</t>
-  </si>
-  <si>
-    <t>MINKPINK</t>
-  </si>
-  <si>
-    <t>Lacy Midi Dress</t>
-  </si>
-  <si>
-    <t>CA$ 222.71</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/minkpink-lacy-midi-dress-in-white-blue-floral/dp/MINK-WD913/?d=Womens&amp;page=1&amp;lc=37&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/TULA-WK641_V1.jpg</t>
-  </si>
-  <si>
-    <t>Zephyr Floral Crochet Sweater</t>
-  </si>
-  <si>
-    <t>CA$ 445.42</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/tularosa-zephyr-floral-crochet-sweater-in-white/dp/TULA-WK641/?d=Womens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SERR-WD143_V1.jpg</t>
-  </si>
-  <si>
-    <t>SER.O.YA</t>
-  </si>
-  <si>
-    <t>Galleria Maxi Dress</t>
-  </si>
-  <si>
-    <t>CA$ 557.58</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/seroya-galleria-maxi-dress-in-powder-blue/dp/SERR-WD143/?d=Womens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SIMO-WD52_V1.jpg</t>
-  </si>
-  <si>
-    <t>Simon Miller</t>
-  </si>
-  <si>
-    <t>Beep Beep Dress</t>
-  </si>
-  <si>
-    <t>CA$ 793.10</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/simon-miller-beep-beep-dress-in-star-gold/dp/SIMO-WD52/?d=Womens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/lovers-and-friends-tamarin-sweater-dress-in-black/dp/LOVF-WD2808/?d=Womens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
 </sst>
 </file>
@@ -635,782 +758,782 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>120</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>123</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>127</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>137</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>6</v>
+        <v>166</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>139</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>141</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>144</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>6</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>147</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>152</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>154</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>157</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>162</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>166</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>171</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
